--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7665" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Vector" sheetId="1" r:id="rId1"/>
@@ -305,6 +305,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,9 +315,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3187,9 +3187,7 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3202,14 +3200,14 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="7"/>
@@ -3357,13 +3355,16 @@
     <mergeCell ref="H2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="4294967292" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3381,14 +3382,14 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="7"/>
@@ -3533,13 +3534,16 @@
     <mergeCell ref="H2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3557,14 +3561,14 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="7"/>
@@ -3709,13 +3713,16 @@
     <mergeCell ref="H2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,14 +3740,14 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="7"/>
@@ -3885,13 +3892,16 @@
     <mergeCell ref="H2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3909,14 +3919,14 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="7"/>
@@ -4061,13 +4071,16 @@
     <mergeCell ref="H2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4085,14 +4098,14 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="7"/>
@@ -4237,13 +4250,16 @@
     <mergeCell ref="H2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4261,14 +4277,14 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="7"/>
@@ -4376,7 +4392,7 @@
       <c r="B14" s="4">
         <v>22</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>7421</v>
       </c>
     </row>
@@ -4413,13 +4429,16 @@
     <mergeCell ref="H2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4437,14 +4456,14 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="7"/>
@@ -4589,16 +4608,19 @@
     <mergeCell ref="H2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -4613,14 +4635,14 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="7"/>
@@ -4765,7 +4787,7 @@
     <mergeCell ref="H2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>